--- a/conf/template.xlsx
+++ b/conf/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="活跃值排行榜" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>本期 总活跃值</t>
   </si>
   <si>
-    <t>本期可兑换授权天数 (10W活跃值 = 1天)</t>
+    <t>本期可兑换授权天数 (20W活跃值 = 1天)</t>
   </si>
   <si>
     <t>本期个人排名</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
